--- a/pred_ohlcv/54_21/2020-01-24 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 PLY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3238456.356209809</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3231837.73250981</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2849555.93260981</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>232960.8024880884</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9926279.070888456</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9552769.303388456</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>9121679.810688457</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8993119.839980839</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>8780117.256580839</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8638815.848880839</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8935327.261080839</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>8801806.280780839</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>10534148.62928084</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>11724578.29368846</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>11724708.29368846</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>11701088.87208845</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>11701212.38988845</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>11476717.14638845</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10969339.22208845</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10948013.59738846</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>10948365.53518846</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>20534365.15301316</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>20295453.68511316</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>20045495.96521316</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>19685406.30091316</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>19922135.12811316</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>19120170.92721316</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>18718222.98681316</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>18195315.63161316</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>26343203.69760512</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>24883867.89320512</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>29141102.51530512</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>29537289.03750512</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>29378054.42420512</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>30033711.09738312</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>30533546.25620512</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>27689984.70447704</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>27928406.46457704</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>28651293.25097704</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>28480483.26017703</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>28439404.33837704</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>26634946.0996094</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>21141026.69475402</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>21084146.97235402</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>20378820.97605402</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>20573182.11065402</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>20481560.63595401</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>19540808.16763053</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>19300092.19723053</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>19246930.45243054</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>17458750.04083053</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>17458515.60133053</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 PLY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3238456.356209809</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3231837.73250981</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2849555.93260981</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3417788.962188088</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3362274.144688088</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3296578.539988088</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1096578.539988088</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>232960.8024880884</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>997587.0189880885</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>997365.0189880885</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>997496.0189880885</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9926279.070888456</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9552769.303388456</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>9121679.810688457</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8993119.839980839</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>8780117.256580839</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8638815.848880839</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8935327.261080839</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>8801806.280780839</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>10534148.62928084</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>11724578.29368846</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>11724708.29368846</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>11701088.87208845</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>11701212.38988845</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>11476717.14638845</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10969339.22208845</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10948013.59738846</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>10948365.53518846</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>20534365.15301316</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>20295453.68511316</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>20045495.96521316</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>19685406.30091316</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>19922135.12811316</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>19120170.92721316</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>18718222.98681316</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>18195315.63161316</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>21284066.22039454</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>21277042.10426249</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>21277042.10426249</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>21266082.10426249</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>21912135.56242072</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>22520682.72960512</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>22500782.72960512</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>25763886.98880512</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>26343203.69760512</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>24883867.89320512</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>29141102.51530512</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>29537289.03750512</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>29378054.42420512</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>30033711.09738312</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>30533546.25620512</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>27689984.70447704</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>27928406.46457704</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>28651293.25097704</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>28480483.26017703</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>28439404.33837704</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>20481560.63595401</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
